--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.attachment.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.attachment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E23F659-AE87-9E43-AEDD-2B57094E5064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14B12FC-07B6-5349-A3A7-A538C3DE3AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47380" yWindow="-10580" windowWidth="44740" windowHeight="29040" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="236">
   <si>
     <t>key</t>
   </si>
@@ -228,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resource.security</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>modeTree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -515,10 +511,6 @@
     <t>检查丢失附件</t>
   </si>
   <si>
-    <t>resource.ambient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x.attachment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -787,6 +779,9 @@
   </si>
   <si>
     <t>b5d58d45-c146-4125-9c9a-fb42565b986b</t>
+  </si>
+  <si>
+    <t>resource.ambient</t>
   </si>
 </sst>
 </file>
@@ -1071,6 +1066,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1081,9 +1079,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1430,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A2:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62:F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1455,23 +1450,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+        <v>63</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" s="23" customFormat="1">
       <c r="A3" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="C3" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>67</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="23" customFormat="1">
@@ -1479,153 +1474,153 @@
         <v>0</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="D4" s="25" t="s">
         <v>70</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="23" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="23" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="23" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="23" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="23" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="23" customFormat="1">
       <c r="A10" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="23" customFormat="1">
       <c r="A11" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="23" customFormat="1">
       <c r="A12" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="23" customFormat="1">
       <c r="A13" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="23" customFormat="1">
       <c r="A14" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B14" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>177</v>
-      </c>
       <c r="D14" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1635,11 +1630,11 @@
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="I18" s="4"/>
@@ -1684,190 +1679,190 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>129</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="D22" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>133</v>
-      </c>
       <c r="D23" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>136</v>
-      </c>
       <c r="D25" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>138</v>
-      </c>
       <c r="D26" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1949,7 +1944,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B38" s="16" t="str">
         <f t="shared" ref="B38:B52" si="0">A62</f>
@@ -1960,13 +1955,13 @@
         <v>48971c00-b21e-4304-a59b-cb988864072c</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>29</v>
@@ -1978,7 +1973,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B39" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1989,13 +1984,13 @@
         <v>ad370f92-c914-4a23-bafd-400112c5587b</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>31</v>
@@ -2007,7 +2002,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B40" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2018,13 +2013,13 @@
         <v>21c9e12f-928a-4cf8-8ae4-6758545273c0</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>33</v>
@@ -2036,7 +2031,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B41" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2047,13 +2042,13 @@
         <v>7b4758df-d98e-434a-b794-2ada0db91b1d</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>34</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>35</v>
@@ -2065,7 +2060,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B42" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2076,13 +2071,13 @@
         <v>48971c00-b21e-4304-a59b-cb988864072c</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>36</v>
@@ -2094,7 +2089,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B43" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2105,13 +2100,13 @@
         <v>21c9e12f-928a-4cf8-8ae4-6758545273c0</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>37</v>
@@ -2123,7 +2118,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B44" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2134,13 +2129,13 @@
         <v>7b4758df-d98e-434a-b794-2ada0db91b1d</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>34</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>38</v>
@@ -2152,7 +2147,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B45" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2163,13 +2158,13 @@
         <v>04d419bc-28ea-4253-afc4-a0ce9d7ff80c</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>39</v>
@@ -2181,7 +2176,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B46" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2192,13 +2187,13 @@
         <v>04d419bc-28ea-4253-afc4-a0ce9d7ff80c</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>40</v>
@@ -2210,7 +2205,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B47" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2221,13 +2216,13 @@
         <v>04d419bc-28ea-4253-afc4-a0ce9d7ff80c</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G47" s="12" t="s">
         <v>41</v>
@@ -2239,7 +2234,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B48" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2250,13 +2245,13 @@
         <v>5ddd5e7a-7348-4c12-a00f-9358e8412ee7</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>42</v>
@@ -2268,7 +2263,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B49" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2279,13 +2274,13 @@
         <v>5ddd5e7a-7348-4c12-a00f-9358e8412ee7</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G49" s="12" t="s">
         <v>43</v>
@@ -2297,7 +2292,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B50" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2308,13 +2303,13 @@
         <v>48971c00-b21e-4304-a59b-cb988864072c</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G50" s="12" t="s">
         <v>44</v>
@@ -2326,7 +2321,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B51" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2337,13 +2332,13 @@
         <v>48971c00-b21e-4304-a59b-cb988864072c</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>45</v>
@@ -2355,7 +2350,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B52" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2366,13 +2361,13 @@
         <v>48971c00-b21e-4304-a59b-cb988864072c</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>56</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>57</v>
@@ -2384,7 +2379,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B53" s="16" t="str">
         <f>A77</f>
@@ -2395,13 +2390,13 @@
         <v>4b398ad8-0d8c-4dab-8954-85130b86d973</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G53" s="12" t="str">
         <f>'DATA-PERM'!B27</f>
@@ -2414,7 +2409,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B54" s="16" t="str">
         <f t="shared" ref="B54:B56" si="1">A78</f>
@@ -2425,13 +2420,13 @@
         <v>7240209a-22d8-4ce5-a8a3-108c177354d9</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G54" s="12" t="str">
         <f>'DATA-PERM'!B28</f>
@@ -2444,7 +2439,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B55" s="16" t="str">
         <f t="shared" si="1"/>
@@ -2455,13 +2450,13 @@
         <v>e24e1d5f-297e-4f9e-9eb7-d67a9f7f5174</v>
       </c>
       <c r="D55" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>165</v>
       </c>
       <c r="G55" s="12" t="str">
         <f>'DATA-PERM'!B29</f>
@@ -2474,7 +2469,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B56" s="16" t="str">
         <f t="shared" si="1"/>
@@ -2485,13 +2480,13 @@
         <v>b4dc2aca-875c-4714-b06b-ef8b6ad481e4</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G56" s="12" t="str">
         <f>'DATA-PERM'!B30</f>
@@ -2527,17 +2522,17 @@
       <c r="B59" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="5" t="s">
@@ -2568,10 +2563,10 @@
         <v>53</v>
       </c>
       <c r="J60" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K60" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2597,36 +2592,36 @@
         <v>26</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J61" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K61" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="G62" s="12">
         <v>1</v>
@@ -2637,27 +2632,27 @@
         <v>1</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="G63" s="12">
         <v>4</v>
@@ -2669,22 +2664,22 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="G64" s="12">
         <v>8</v>
@@ -2696,22 +2691,22 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="G65" s="12">
         <v>12</v>
@@ -2723,22 +2718,22 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="G66" s="12">
         <v>1</v>
@@ -2750,22 +2745,22 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="G67" s="12">
         <v>8</v>
@@ -2777,22 +2772,22 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="G68" s="12">
         <v>12</v>
@@ -2804,22 +2799,22 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="G69" s="12">
         <v>3</v>
@@ -2831,22 +2826,22 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="G70" s="12">
         <v>3</v>
@@ -2858,22 +2853,22 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="G71" s="12">
         <v>11</v>
@@ -2885,22 +2880,22 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="G72" s="12">
         <v>5</v>
@@ -2912,22 +2907,22 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="G73" s="12">
         <v>3</v>
@@ -2939,22 +2934,22 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="G74" s="12">
         <v>1</v>
@@ -2966,22 +2961,22 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="G75" s="12">
         <v>1</v>
@@ -2993,22 +2988,22 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="G76" s="12">
         <v>1</v>
@@ -3020,7 +3015,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B77" s="12" t="str">
         <f>'DATA-PERM'!B27</f>
@@ -3030,13 +3025,13 @@
         <v>55</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="G77" s="12">
         <v>4</v>
@@ -3047,8 +3042,8 @@
       <c r="K77" s="11"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="33" t="s">
-        <v>195</v>
+      <c r="A78" s="29" t="s">
+        <v>193</v>
       </c>
       <c r="B78" s="12" t="str">
         <f>'DATA-PERM'!B28</f>
@@ -3058,13 +3053,13 @@
         <v>55</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="G78" s="12">
         <v>1</v>
@@ -3075,8 +3070,8 @@
       <c r="K78" s="11"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="33" t="s">
-        <v>196</v>
+      <c r="A79" s="29" t="s">
+        <v>194</v>
       </c>
       <c r="B79" s="12" t="str">
         <f>'DATA-PERM'!B29</f>
@@ -3086,13 +3081,13 @@
         <v>55</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="G79" s="12">
         <v>1</v>
@@ -3103,8 +3098,8 @@
       <c r="K79" s="11"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="33" t="s">
-        <v>197</v>
+      <c r="A80" s="29" t="s">
+        <v>195</v>
       </c>
       <c r="B80" s="12" t="str">
         <f>'DATA-PERM'!B30</f>
@@ -3114,13 +3109,13 @@
         <v>55</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="G80" s="12">
         <v>1</v>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.attachment.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.attachment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14B12FC-07B6-5349-A3A7-A538C3DE3AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC21473-EE1A-224E-A735-F820004D0764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47380" yWindow="-10580" windowWidth="44740" windowHeight="29040" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="62520" yWindow="-7940" windowWidth="44740" windowHeight="29040" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -535,9 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/file/upload/:category</t>
-  </si>
-  <si>
     <t>act.file.download</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -782,6 +779,10 @@
   </si>
   <si>
     <t>resource.ambient</t>
+  </si>
+  <si>
+    <t>/api/file/upload/:identifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1425,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A2:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62:F80"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1485,13 +1486,13 @@
     </row>
     <row r="5" spans="1:4" s="23" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>75</v>
@@ -1499,13 +1500,13 @@
     </row>
     <row r="6" spans="1:4" s="23" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>75</v>
@@ -1513,13 +1514,13 @@
     </row>
     <row r="7" spans="1:4" s="23" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>75</v>
@@ -1527,13 +1528,13 @@
     </row>
     <row r="8" spans="1:4" s="23" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>75</v>
@@ -1541,13 +1542,13 @@
     </row>
     <row r="9" spans="1:4" s="23" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>75</v>
@@ -1555,13 +1556,13 @@
     </row>
     <row r="10" spans="1:4" s="23" customFormat="1">
       <c r="A10" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>81</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>75</v>
@@ -1569,58 +1570,58 @@
     </row>
     <row r="11" spans="1:4" s="23" customFormat="1">
       <c r="A11" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="23" customFormat="1">
       <c r="A12" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="23" customFormat="1">
       <c r="A13" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="23" customFormat="1">
       <c r="A14" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>173</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1679,7 +1680,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>127</v>
@@ -1698,7 +1699,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>129</v>
@@ -1717,7 +1718,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>131</v>
@@ -1736,7 +1737,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>133</v>
@@ -1755,7 +1756,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>134</v>
@@ -1774,7 +1775,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>136</v>
@@ -1793,16 +1794,16 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>152</v>
@@ -1812,16 +1813,16 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>152</v>
@@ -1831,16 +1832,16 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>152</v>
@@ -1850,16 +1851,16 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>173</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>152</v>
@@ -1944,7 +1945,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B38" s="16" t="str">
         <f t="shared" ref="B38:B52" si="0">A62</f>
@@ -1973,7 +1974,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B39" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2002,7 +2003,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B40" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2031,7 +2032,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B41" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2060,7 +2061,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B42" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2089,7 +2090,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B43" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2118,7 +2119,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B44" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2147,7 +2148,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B45" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2176,7 +2177,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B46" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2205,7 +2206,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B47" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2234,7 +2235,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B48" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2263,7 +2264,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B49" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2292,7 +2293,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B50" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2321,7 +2322,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B51" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2350,7 +2351,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B52" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2379,7 +2380,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B53" s="16" t="str">
         <f>A77</f>
@@ -2396,7 +2397,7 @@
         <v>30</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="G53" s="12" t="str">
         <f>'DATA-PERM'!B27</f>
@@ -2409,7 +2410,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B54" s="16" t="str">
         <f t="shared" ref="B54:B56" si="1">A78</f>
@@ -2420,13 +2421,13 @@
         <v>7240209a-22d8-4ce5-a8a3-108c177354d9</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G54" s="12" t="str">
         <f>'DATA-PERM'!B28</f>
@@ -2439,7 +2440,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B55" s="16" t="str">
         <f t="shared" si="1"/>
@@ -2450,13 +2451,13 @@
         <v>e24e1d5f-297e-4f9e-9eb7-d67a9f7f5174</v>
       </c>
       <c r="D55" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="F55" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>163</v>
       </c>
       <c r="G55" s="12" t="str">
         <f>'DATA-PERM'!B29</f>
@@ -2469,7 +2470,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B56" s="16" t="str">
         <f t="shared" si="1"/>
@@ -2480,13 +2481,13 @@
         <v>b4dc2aca-875c-4714-b06b-ef8b6ad481e4</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G56" s="12" t="str">
         <f>'DATA-PERM'!B30</f>
@@ -2606,7 +2607,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>138</v>
@@ -2621,7 +2622,7 @@
         <v>82</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G62" s="12">
         <v>1</v>
@@ -2637,7 +2638,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>139</v>
@@ -2652,7 +2653,7 @@
         <v>82</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G63" s="12">
         <v>4</v>
@@ -2664,7 +2665,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>140</v>
@@ -2679,7 +2680,7 @@
         <v>82</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G64" s="12">
         <v>8</v>
@@ -2691,7 +2692,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>141</v>
@@ -2706,7 +2707,7 @@
         <v>82</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G65" s="12">
         <v>12</v>
@@ -2718,7 +2719,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>142</v>
@@ -2733,7 +2734,7 @@
         <v>82</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G66" s="12">
         <v>1</v>
@@ -2745,7 +2746,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>143</v>
@@ -2760,7 +2761,7 @@
         <v>82</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G67" s="12">
         <v>8</v>
@@ -2772,7 +2773,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>144</v>
@@ -2787,7 +2788,7 @@
         <v>82</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G68" s="12">
         <v>12</v>
@@ -2799,7 +2800,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>145</v>
@@ -2814,7 +2815,7 @@
         <v>82</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G69" s="12">
         <v>3</v>
@@ -2826,7 +2827,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>146</v>
@@ -2841,7 +2842,7 @@
         <v>82</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G70" s="12">
         <v>3</v>
@@ -2853,7 +2854,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>147</v>
@@ -2868,7 +2869,7 @@
         <v>82</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G71" s="12">
         <v>11</v>
@@ -2880,7 +2881,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>148</v>
@@ -2895,7 +2896,7 @@
         <v>82</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G72" s="12">
         <v>5</v>
@@ -2907,7 +2908,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>149</v>
@@ -2922,7 +2923,7 @@
         <v>82</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G73" s="12">
         <v>3</v>
@@ -2934,7 +2935,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>150</v>
@@ -2949,7 +2950,7 @@
         <v>82</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G74" s="12">
         <v>1</v>
@@ -2961,7 +2962,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>151</v>
@@ -2976,7 +2977,7 @@
         <v>82</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G75" s="12">
         <v>1</v>
@@ -2988,7 +2989,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>138</v>
@@ -3003,7 +3004,7 @@
         <v>82</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G76" s="12">
         <v>1</v>
@@ -3015,7 +3016,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B77" s="12" t="str">
         <f>'DATA-PERM'!B27</f>
@@ -3031,7 +3032,7 @@
         <v>152</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G77" s="12">
         <v>4</v>
@@ -3043,7 +3044,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B78" s="12" t="str">
         <f>'DATA-PERM'!B28</f>
@@ -3059,7 +3060,7 @@
         <v>152</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G78" s="12">
         <v>1</v>
@@ -3071,7 +3072,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B79" s="12" t="str">
         <f>'DATA-PERM'!B29</f>
@@ -3087,7 +3088,7 @@
         <v>152</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G79" s="12">
         <v>1</v>
@@ -3099,7 +3100,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B80" s="12" t="str">
         <f>'DATA-PERM'!B30</f>
@@ -3115,7 +3116,7 @@
         <v>152</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G80" s="12">
         <v>1</v>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.attachment.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.attachment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC21473-EE1A-224E-A735-F820004D0764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9284A01-4675-AE4C-B24B-2A92D84C1ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62520" yWindow="-7940" windowWidth="44740" windowHeight="29040" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="61600" yWindow="-8460" windowWidth="44740" windowHeight="29040" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="256">
   <si>
     <t>key</t>
   </si>
@@ -782,6 +782,78 @@
   </si>
   <si>
     <t>/api/file/upload/:identifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取目录文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.file.directory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>979ab118-e232-4595-a9cb-20b68e775fd7</t>
+  </si>
+  <si>
+    <t>平台管理/文档目录管理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0f613180-cb4d-484b-8e32-7567066d9ef8</t>
+  </si>
+  <si>
+    <t>resource.integration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.file.directory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfd1d794-bea3-4c79-aaaa-eceb53af3fcd</t>
+  </si>
+  <si>
+    <t>act.file.directory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4bf32de0-16c1-4624-927f-53da94f85328</t>
+  </si>
+  <si>
+    <t>搜索文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.file.search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be0f8b9b-bff1-4d38-af64-02efbb17a390</t>
+  </si>
+  <si>
+    <t>647f6548-b7fd-4238-b978-d47d3e1503db</t>
+  </si>
+  <si>
+    <t>res.file.search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a9baa170-550b-44ee-8e32-b8eee8205483</t>
+  </si>
+  <si>
+    <t>act.file.keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34a98478-a554-40a1-867b-d27dfd9b0a22</t>
+  </si>
+  <si>
+    <t>/api/file/by/directory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/file/by/keyword/:keyword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1424,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K82"/>
+  <dimension ref="A2:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1437,7 +1509,7 @@
     <col min="4" max="4" width="36.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -1624,110 +1696,100 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C20" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>82</v>
+      <c r="A21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>82</v>
+      <c r="A22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>82</v>
@@ -1737,16 +1799,16 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>82</v>
@@ -1756,16 +1818,16 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>82</v>
@@ -1775,16 +1837,16 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>82</v>
@@ -1794,54 +1856,54 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>152</v>
@@ -1851,16 +1913,16 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>152</v>
@@ -1868,975 +1930,907 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="1" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C39" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="5" t="s">
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I40" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="7" t="s">
+    <row r="41" spans="1:9">
+      <c r="A41" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D41" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F41" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I41" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="10" t="s">
+    <row r="42" spans="1:9">
+      <c r="A42" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B38" s="16" t="str">
-        <f t="shared" ref="B38:B52" si="0">A62</f>
+      <c r="B42" s="16" t="str">
+        <f t="shared" ref="B42:B56" si="0">A70</f>
         <v>ab01e17b-dd2e-48ce-9d3d-32f7ac89e65d</v>
       </c>
-      <c r="C38" s="16" t="str">
-        <f>A21</f>
+      <c r="C42" s="16" t="str">
+        <f>A23</f>
         <v>48971c00-b21e-4304-a59b-cb988864072c</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E42" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F42" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G42" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H42" s="12">
         <v>1</v>
       </c>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="10" t="s">
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B39" s="16" t="str">
+      <c r="B43" s="16" t="str">
         <f t="shared" si="0"/>
         <v>459fd706-dd89-4f42-97a0-dc9c39174816</v>
       </c>
-      <c r="C39" s="16" t="str">
-        <f>A22</f>
+      <c r="C43" s="16" t="str">
+        <f>A24</f>
         <v>ad370f92-c914-4a23-bafd-400112c5587b</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D43" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E43" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F43" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G43" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H43" s="12">
         <v>4</v>
       </c>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="10" t="s">
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B40" s="16" t="str">
+      <c r="B44" s="16" t="str">
         <f t="shared" si="0"/>
         <v>01361936-6a9d-4cbf-a7ba-9058db769a32</v>
       </c>
-      <c r="C40" s="16" t="str">
-        <f>A23</f>
+      <c r="C44" s="16" t="str">
+        <f>A25</f>
         <v>21c9e12f-928a-4cf8-8ae4-6758545273c0</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E44" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F44" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G44" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H44" s="12">
         <v>8</v>
       </c>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="10" t="s">
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B41" s="16" t="str">
+      <c r="B45" s="16" t="str">
         <f t="shared" si="0"/>
         <v>f0455b6a-68c8-4184-a09c-0ef15798dd7d</v>
       </c>
-      <c r="C41" s="16" t="str">
-        <f>A24</f>
+      <c r="C45" s="16" t="str">
+        <f>A26</f>
         <v>7b4758df-d98e-434a-b794-2ada0db91b1d</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D45" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E45" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F45" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G45" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H45" s="12">
         <v>12</v>
       </c>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="10" t="s">
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B42" s="16" t="str">
+      <c r="B46" s="16" t="str">
         <f t="shared" si="0"/>
         <v>65518a72-6d19-4119-9fdf-28e2a15f2468</v>
       </c>
-      <c r="C42" s="16" t="str">
-        <f>A21</f>
+      <c r="C46" s="16" t="str">
+        <f>A23</f>
         <v>48971c00-b21e-4304-a59b-cb988864072c</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E46" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F46" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G46" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H46" s="12">
         <v>1</v>
       </c>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="10" t="s">
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B43" s="16" t="str">
+      <c r="B47" s="16" t="str">
         <f t="shared" si="0"/>
         <v>eb256cce-c770-4a95-ae3e-0c42d90cbeda</v>
       </c>
-      <c r="C43" s="16" t="str">
-        <f>A23</f>
+      <c r="C47" s="16" t="str">
+        <f>A25</f>
         <v>21c9e12f-928a-4cf8-8ae4-6758545273c0</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E47" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F47" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G47" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H47" s="12">
         <v>8</v>
       </c>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="10" t="s">
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B44" s="16" t="str">
+      <c r="B48" s="16" t="str">
         <f t="shared" si="0"/>
         <v>69c852b9-e25f-4110-8408-a0cae4ee3605</v>
       </c>
-      <c r="C44" s="16" t="str">
-        <f>A24</f>
+      <c r="C48" s="16" t="str">
+        <f>A26</f>
         <v>7b4758df-d98e-434a-b794-2ada0db91b1d</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E48" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F48" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G48" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H48" s="12">
         <v>12</v>
       </c>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="10" t="s">
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B45" s="16" t="str">
+      <c r="B49" s="16" t="str">
         <f t="shared" si="0"/>
         <v>ea9347e3-22ac-4498-bfbd-efe6a9a6fcd6</v>
       </c>
-      <c r="C45" s="16" t="str">
-        <f>A25</f>
+      <c r="C49" s="16" t="str">
+        <f>A27</f>
         <v>04d419bc-28ea-4253-afc4-a0ce9d7ff80c</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D49" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E49" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F49" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G49" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H49" s="12">
         <v>3</v>
       </c>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="10" t="s">
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B46" s="16" t="str">
+      <c r="B50" s="16" t="str">
         <f t="shared" si="0"/>
         <v>1dd224c4-0851-4277-97a7-39d709b2ab31</v>
       </c>
-      <c r="C46" s="16" t="str">
-        <f>A25</f>
+      <c r="C50" s="16" t="str">
+        <f>A27</f>
         <v>04d419bc-28ea-4253-afc4-a0ce9d7ff80c</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E50" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F50" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G50" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H50" s="12">
         <v>3</v>
       </c>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="10" t="s">
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B47" s="16" t="str">
+      <c r="B51" s="16" t="str">
         <f t="shared" si="0"/>
         <v>61377ff6-4a98-4733-ab4f-dae940bc480b</v>
       </c>
-      <c r="C47" s="16" t="str">
-        <f>A25</f>
+      <c r="C51" s="16" t="str">
+        <f>A27</f>
         <v>04d419bc-28ea-4253-afc4-a0ce9d7ff80c</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D51" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E51" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F51" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="G51" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H51" s="12">
         <v>11</v>
       </c>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="10" t="s">
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B48" s="16" t="str">
+      <c r="B52" s="16" t="str">
         <f t="shared" si="0"/>
         <v>b0824b85-e2a6-44df-b9d6-7fead9a04d3d</v>
       </c>
-      <c r="C48" s="16" t="str">
-        <f>A26</f>
+      <c r="C52" s="16" t="str">
+        <f>A28</f>
         <v>5ddd5e7a-7348-4c12-a00f-9358e8412ee7</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D52" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E52" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F52" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="G52" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H52" s="12">
         <v>5</v>
       </c>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="10" t="s">
+      <c r="I52" s="12"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B49" s="16" t="str">
+      <c r="B53" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0df1bfe7-760d-4b28-99ab-9f8db551d961</v>
       </c>
-      <c r="C49" s="16" t="str">
-        <f>A26</f>
+      <c r="C53" s="16" t="str">
+        <f>A28</f>
         <v>5ddd5e7a-7348-4c12-a00f-9358e8412ee7</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D53" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E53" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F53" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="G53" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H53" s="12">
         <v>3</v>
       </c>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="10" t="s">
+      <c r="I53" s="12"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B50" s="16" t="str">
+      <c r="B54" s="16" t="str">
         <f t="shared" si="0"/>
         <v>0ba54a2b-6a43-4466-ba7f-e949218933ef</v>
       </c>
-      <c r="C50" s="16" t="str">
-        <f>A21</f>
+      <c r="C54" s="16" t="str">
+        <f>A23</f>
         <v>48971c00-b21e-4304-a59b-cb988864072c</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D54" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E54" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F54" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="G54" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H54" s="12">
         <v>1</v>
       </c>
-      <c r="I50" s="12"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="10" t="s">
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B51" s="16" t="str">
+      <c r="B55" s="16" t="str">
         <f t="shared" si="0"/>
         <v>8c3873b5-2641-443e-87ef-53d3dda075b4</v>
       </c>
-      <c r="C51" s="16" t="str">
-        <f>A21</f>
+      <c r="C55" s="16" t="str">
+        <f>A23</f>
         <v>48971c00-b21e-4304-a59b-cb988864072c</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D55" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E55" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F55" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="G55" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H55" s="12">
         <v>1</v>
       </c>
-      <c r="I51" s="12"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="10" t="s">
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B52" s="16" t="str">
+      <c r="B56" s="16" t="str">
         <f t="shared" si="0"/>
         <v>b0b3901d-12ff-4c05-a879-480e0b9fa91d</v>
       </c>
-      <c r="C52" s="16" t="str">
-        <f>A21</f>
+      <c r="C56" s="16" t="str">
+        <f>A23</f>
         <v>48971c00-b21e-4304-a59b-cb988864072c</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D56" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E56" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F56" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="G52" s="12" t="s">
+      <c r="G56" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H56" s="12">
         <v>1</v>
       </c>
-      <c r="I52" s="12"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="10" t="s">
+      <c r="I56" s="12"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B53" s="16" t="str">
-        <f>A77</f>
+      <c r="B57" s="16" t="str">
+        <f>A85</f>
         <v>e719768b-4877-4a85-ac95-595933ea5096</v>
       </c>
-      <c r="C53" s="16" t="str">
-        <f>A27</f>
+      <c r="C57" s="16" t="str">
+        <f>A29</f>
         <v>4b398ad8-0d8c-4dab-8954-85130b86d973</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D57" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E57" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F57" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="G53" s="12" t="str">
-        <f>'DATA-PERM'!B27</f>
+      <c r="G57" s="12" t="str">
+        <f>'DATA-PERM'!B29</f>
         <v>上传</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H57" s="12">
         <v>4</v>
       </c>
-      <c r="I53" s="12"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="10" t="s">
+      <c r="I57" s="12"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B54" s="16" t="str">
-        <f t="shared" ref="B54:B56" si="1">A78</f>
+      <c r="B58" s="16" t="str">
+        <f t="shared" ref="B58:B60" si="1">A86</f>
         <v>7fd2d3b1-9cb6-400e-83f9-ad8676154f56</v>
       </c>
-      <c r="C54" s="16" t="str">
-        <f t="shared" ref="C54:C56" si="2">A28</f>
+      <c r="C58" s="16" t="str">
+        <f>A30</f>
         <v>7240209a-22d8-4ce5-a8a3-108c177354d9</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D58" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E58" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F58" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="G54" s="12" t="str">
-        <f>'DATA-PERM'!B28</f>
+      <c r="G58" s="12" t="str">
+        <f>'DATA-PERM'!B30</f>
         <v>下载</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H58" s="12">
         <v>1</v>
       </c>
-      <c r="I54" s="12"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="10" t="s">
+      <c r="I58" s="12"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B55" s="16" t="str">
+      <c r="B59" s="16" t="str">
         <f t="shared" si="1"/>
         <v>cff42b11-8991-4830-9d5a-b611c4ce214f</v>
       </c>
-      <c r="C55" s="16" t="str">
-        <f t="shared" si="2"/>
+      <c r="C59" s="16" t="str">
+        <f>A31</f>
         <v>e24e1d5f-297e-4f9e-9eb7-d67a9f7f5174</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D59" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E59" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F59" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="G55" s="12" t="str">
-        <f>'DATA-PERM'!B29</f>
+      <c r="G59" s="12" t="str">
+        <f>'DATA-PERM'!B31</f>
         <v>我的文件</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H59" s="12">
         <v>1</v>
       </c>
-      <c r="I55" s="12"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="10" t="s">
+      <c r="I59" s="12"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B56" s="16" t="str">
+      <c r="B60" s="16" t="str">
         <f t="shared" si="1"/>
         <v>f5f8a512-0db3-42b7-915f-3d33ebbcb14c</v>
       </c>
-      <c r="C56" s="16" t="str">
-        <f t="shared" si="2"/>
+      <c r="C60" s="16" t="str">
+        <f>A32</f>
         <v>b4dc2aca-875c-4714-b06b-ef8b6ad481e4</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D60" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E60" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F60" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="G56" s="12" t="str">
-        <f>'DATA-PERM'!B30</f>
+      <c r="G60" s="12" t="str">
+        <f>'DATA-PERM'!B32</f>
         <v>读取文件</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H60" s="12">
         <v>1</v>
       </c>
-      <c r="I56" s="12"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="3"/>
-      <c r="K57" s="14"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="3"/>
-      <c r="K58" s="14"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="1" t="s">
+      <c r="I60" s="12"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B61" s="16" t="str">
+        <f t="shared" ref="B61" si="2">A89</f>
+        <v>bfd1d794-bea3-4c79-aaaa-eceb53af3fcd</v>
+      </c>
+      <c r="C61" s="16" t="str">
+        <f t="shared" ref="C61" si="3">A33</f>
+        <v>979ab118-e232-4595-a9cb-20b68e775fd7</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="G61" s="12" t="str">
+        <f>'DATA-PERM'!B33</f>
+        <v>读取目录文件</v>
+      </c>
+      <c r="H61" s="12">
         <v>1</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H60" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I60" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="I61" s="12"/>
+      <c r="K61" s="14"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>55</v>
+        <v>253</v>
+      </c>
+      <c r="B62" s="16" t="str">
+        <f t="shared" ref="B62" si="4">A90</f>
+        <v>a9baa170-550b-44ee-8e32-b8eee8205483</v>
+      </c>
+      <c r="C62" s="16" t="str">
+        <f t="shared" ref="C62" si="5">A34</f>
+        <v>be0f8b9b-bff1-4d38-af64-02efbb17a390</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G62" s="12">
+        <v>28</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G62" s="12" t="str">
+        <f>'DATA-PERM'!B34</f>
+        <v>搜索文件</v>
+      </c>
+      <c r="H62" s="12">
         <v>1</v>
       </c>
-      <c r="H62" s="12"/>
       <c r="I62" s="12"/>
-      <c r="J62" s="11" t="b">
+      <c r="K62" s="14"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="3"/>
+      <c r="K63" s="14"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="3"/>
+      <c r="K64" s="14"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="3"/>
+      <c r="K65" s="14"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="3"/>
+      <c r="K66" s="14"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K62" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G63" s="12">
-        <v>4</v>
-      </c>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G64" s="12">
-        <v>8</v>
-      </c>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G65" s="12">
+      <c r="B67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G66" s="12">
-        <v>1</v>
-      </c>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G67" s="12">
-        <v>8</v>
-      </c>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G68" s="12">
-        <v>12</v>
-      </c>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
+      <c r="A68" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I68" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G69" s="12">
+      <c r="A69" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
+      <c r="C69" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="10" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>82</v>
@@ -2845,25 +2839,29 @@
         <v>234</v>
       </c>
       <c r="G70" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
+      <c r="J70" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="10" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>82</v>
@@ -2872,7 +2870,7 @@
         <v>234</v>
       </c>
       <c r="G71" s="12">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
@@ -2881,16 +2879,16 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="10" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>82</v>
@@ -2899,7 +2897,7 @@
         <v>234</v>
       </c>
       <c r="G72" s="12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
@@ -2908,16 +2906,16 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="10" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>82</v>
@@ -2926,7 +2924,7 @@
         <v>234</v>
       </c>
       <c r="G73" s="12">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
@@ -2935,16 +2933,16 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="10" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>82</v>
@@ -2962,16 +2960,16 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>82</v>
@@ -2980,7 +2978,7 @@
         <v>234</v>
       </c>
       <c r="G75" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
@@ -2989,16 +2987,16 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="10" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>82</v>
@@ -3007,7 +3005,7 @@
         <v>234</v>
       </c>
       <c r="G76" s="12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
@@ -3016,26 +3014,25 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B77" s="12" t="str">
-        <f>'DATA-PERM'!B27</f>
-        <v>上传</v>
+        <v>183</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>234</v>
       </c>
       <c r="G77" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
@@ -3043,27 +3040,26 @@
       <c r="K77" s="11"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="B78" s="12" t="str">
-        <f>'DATA-PERM'!B28</f>
-        <v>下载</v>
+      <c r="A78" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>234</v>
       </c>
       <c r="G78" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
@@ -3071,27 +3067,26 @@
       <c r="K78" s="11"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="B79" s="12" t="str">
-        <f>'DATA-PERM'!B29</f>
-        <v>我的文件</v>
+      <c r="A79" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>234</v>
       </c>
       <c r="G79" s="12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
@@ -3099,27 +3094,26 @@
       <c r="K79" s="11"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B80" s="12" t="str">
-        <f>'DATA-PERM'!B30</f>
-        <v>读取文件</v>
+      <c r="A80" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>234</v>
       </c>
       <c r="G80" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
@@ -3127,26 +3121,286 @@
       <c r="K80" s="11"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="3"/>
-      <c r="K81" s="14"/>
+      <c r="A81" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G81" s="12">
+        <v>3</v>
+      </c>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="14"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="K82" s="14"/>
+      <c r="A82" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G82" s="12">
+        <v>1</v>
+      </c>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G83" s="12">
+        <v>1</v>
+      </c>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G84" s="12">
+        <v>1</v>
+      </c>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B85" s="12" t="str">
+        <f>'DATA-PERM'!B29</f>
+        <v>上传</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G85" s="12">
+        <v>4</v>
+      </c>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" s="12" t="str">
+        <f>'DATA-PERM'!B30</f>
+        <v>下载</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G86" s="12">
+        <v>1</v>
+      </c>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" s="12" t="str">
+        <f>'DATA-PERM'!B31</f>
+        <v>我的文件</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G87" s="12">
+        <v>1</v>
+      </c>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B88" s="12" t="str">
+        <f>'DATA-PERM'!B32</f>
+        <v>读取文件</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G88" s="12">
+        <v>1</v>
+      </c>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="B89" s="12" t="str">
+        <f>'DATA-PERM'!B33</f>
+        <v>读取目录文件</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G89" s="12">
+        <v>1</v>
+      </c>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B90" s="12" t="str">
+        <f>'DATA-PERM'!B34</f>
+        <v>搜索文件</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G90" s="12">
+        <v>1</v>
+      </c>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C67:K67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.attachment.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.attachment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9284A01-4675-AE4C-B24B-2A92D84C1ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7A41C3-1DAF-2C48-A487-D8A8B1F66297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61600" yWindow="-8460" windowWidth="44740" windowHeight="29040" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="44000" yWindow="-6340" windowWidth="44740" windowHeight="29040" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="236">
   <si>
     <t>key</t>
   </si>
@@ -782,78 +782,6 @@
   </si>
   <si>
     <t>/api/file/upload/:identifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取目录文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>perm.file.directory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>979ab118-e232-4595-a9cb-20b68e775fd7</t>
-  </si>
-  <si>
-    <t>平台管理/文档目录管理</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0f613180-cb4d-484b-8e32-7567066d9ef8</t>
-  </si>
-  <si>
-    <t>resource.integration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.file.directory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfd1d794-bea3-4c79-aaaa-eceb53af3fcd</t>
-  </si>
-  <si>
-    <t>act.file.directory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4bf32de0-16c1-4624-927f-53da94f85328</t>
-  </si>
-  <si>
-    <t>搜索文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>perm.file.search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>be0f8b9b-bff1-4d38-af64-02efbb17a390</t>
-  </si>
-  <si>
-    <t>647f6548-b7fd-4238-b978-d47d3e1503db</t>
-  </si>
-  <si>
-    <t>res.file.search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a9baa170-550b-44ee-8e32-b8eee8205483</t>
-  </si>
-  <si>
-    <t>act.file.keyword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34a98478-a554-40a1-867b-d27dfd9b0a22</t>
-  </si>
-  <si>
-    <t>/api/file/by/directory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/file/by/keyword/:keyword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1496,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K90"/>
+  <dimension ref="A2:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A16" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1696,100 +1624,110 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>173</v>
-      </c>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
+      <c r="A20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>58</v>
+      <c r="A21" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>59</v>
+      <c r="A22" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>82</v>
@@ -1799,16 +1737,16 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>82</v>
@@ -1818,16 +1756,16 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>82</v>
@@ -1837,16 +1775,16 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>82</v>
@@ -1856,54 +1794,54 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>152</v>
@@ -1913,16 +1851,16 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>152</v>
@@ -1930,176 +1868,220 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>152</v>
-      </c>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="16" t="str">
+        <f t="shared" ref="B38:B52" si="0">A64</f>
+        <v>ab01e17b-dd2e-48ce-9d3d-32f7ac89e65d</v>
+      </c>
+      <c r="C38" s="16" t="str">
+        <f>A21</f>
+        <v>48971c00-b21e-4304-a59b-cb988864072c</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="12">
+        <v>1</v>
+      </c>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="17" t="s">
+      <c r="A39" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>459fd706-dd89-4f42-97a0-dc9c39174816</v>
+      </c>
+      <c r="C39" s="16" t="str">
+        <f>A22</f>
+        <v>ad370f92-c914-4a23-bafd-400112c5587b</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="12">
+        <v>4</v>
+      </c>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>01361936-6a9d-4cbf-a7ba-9058db769a32</v>
+      </c>
+      <c r="C40" s="16" t="str">
+        <f>A23</f>
+        <v>21c9e12f-928a-4cf8-8ae4-6758545273c0</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="12">
+        <v>8</v>
+      </c>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>f0455b6a-68c8-4184-a09c-0ef15798dd7d</v>
+      </c>
+      <c r="C41" s="16" t="str">
+        <f>A24</f>
+        <v>7b4758df-d98e-434a-b794-2ada0db91b1d</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="12">
         <v>12</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B42" s="16" t="str">
-        <f t="shared" ref="B42:B56" si="0">A70</f>
-        <v>ab01e17b-dd2e-48ce-9d3d-32f7ac89e65d</v>
+        <f t="shared" si="0"/>
+        <v>65518a72-6d19-4119-9fdf-28e2a15f2468</v>
       </c>
       <c r="C42" s="16" t="str">
-        <f>A23</f>
+        <f>A21</f>
         <v>48971c00-b21e-4304-a59b-cb988864072c</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H42" s="12">
         <v>1</v>
@@ -2108,201 +2090,201 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="10" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B43" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>459fd706-dd89-4f42-97a0-dc9c39174816</v>
+        <v>eb256cce-c770-4a95-ae3e-0c42d90cbeda</v>
       </c>
       <c r="C43" s="16" t="str">
-        <f>A24</f>
-        <v>ad370f92-c914-4a23-bafd-400112c5587b</v>
+        <f>A23</f>
+        <v>21c9e12f-928a-4cf8-8ae4-6758545273c0</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H43" s="12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="10" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B44" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>01361936-6a9d-4cbf-a7ba-9058db769a32</v>
+        <v>69c852b9-e25f-4110-8408-a0cae4ee3605</v>
       </c>
       <c r="C44" s="16" t="str">
-        <f>A25</f>
-        <v>21c9e12f-928a-4cf8-8ae4-6758545273c0</v>
+        <f>A24</f>
+        <v>7b4758df-d98e-434a-b794-2ada0db91b1d</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H44" s="12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="10" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B45" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>f0455b6a-68c8-4184-a09c-0ef15798dd7d</v>
+        <v>ea9347e3-22ac-4498-bfbd-efe6a9a6fcd6</v>
       </c>
       <c r="C45" s="16" t="str">
-        <f>A26</f>
-        <v>7b4758df-d98e-434a-b794-2ada0db91b1d</v>
+        <f>A25</f>
+        <v>04d419bc-28ea-4253-afc4-a0ce9d7ff80c</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H45" s="12">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="10" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B46" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>65518a72-6d19-4119-9fdf-28e2a15f2468</v>
+        <v>1dd224c4-0851-4277-97a7-39d709b2ab31</v>
       </c>
       <c r="C46" s="16" t="str">
-        <f>A23</f>
-        <v>48971c00-b21e-4304-a59b-cb988864072c</v>
+        <f>A25</f>
+        <v>04d419bc-28ea-4253-afc4-a0ce9d7ff80c</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H46" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B47" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>eb256cce-c770-4a95-ae3e-0c42d90cbeda</v>
+        <v>61377ff6-4a98-4733-ab4f-dae940bc480b</v>
       </c>
       <c r="C47" s="16" t="str">
         <f>A25</f>
-        <v>21c9e12f-928a-4cf8-8ae4-6758545273c0</v>
+        <v>04d419bc-28ea-4253-afc4-a0ce9d7ff80c</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H47" s="12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="10" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B48" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>69c852b9-e25f-4110-8408-a0cae4ee3605</v>
+        <v>b0824b85-e2a6-44df-b9d6-7fead9a04d3d</v>
       </c>
       <c r="C48" s="16" t="str">
         <f>A26</f>
-        <v>7b4758df-d98e-434a-b794-2ada0db91b1d</v>
+        <v>5ddd5e7a-7348-4c12-a00f-9358e8412ee7</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H48" s="12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="10" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B49" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>ea9347e3-22ac-4498-bfbd-efe6a9a6fcd6</v>
+        <v>0df1bfe7-760d-4b28-99ab-9f8db551d961</v>
       </c>
       <c r="C49" s="16" t="str">
-        <f>A27</f>
-        <v>04d419bc-28ea-4253-afc4-a0ce9d7ff80c</v>
+        <f>A26</f>
+        <v>5ddd5e7a-7348-4c12-a00f-9358e8412ee7</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H49" s="12">
         <v>3</v>
@@ -2311,143 +2293,145 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="10" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B50" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>1dd224c4-0851-4277-97a7-39d709b2ab31</v>
+        <v>0ba54a2b-6a43-4466-ba7f-e949218933ef</v>
       </c>
       <c r="C50" s="16" t="str">
-        <f>A27</f>
-        <v>04d419bc-28ea-4253-afc4-a0ce9d7ff80c</v>
+        <f>A21</f>
+        <v>48971c00-b21e-4304-a59b-cb988864072c</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H50" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50" s="12"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B51" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>61377ff6-4a98-4733-ab4f-dae940bc480b</v>
+        <v>8c3873b5-2641-443e-87ef-53d3dda075b4</v>
       </c>
       <c r="C51" s="16" t="str">
-        <f>A27</f>
-        <v>04d419bc-28ea-4253-afc4-a0ce9d7ff80c</v>
+        <f>A21</f>
+        <v>48971c00-b21e-4304-a59b-cb988864072c</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H51" s="12">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="10" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B52" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>b0824b85-e2a6-44df-b9d6-7fead9a04d3d</v>
+        <v>b0b3901d-12ff-4c05-a879-480e0b9fa91d</v>
       </c>
       <c r="C52" s="16" t="str">
-        <f>A28</f>
-        <v>5ddd5e7a-7348-4c12-a00f-9358e8412ee7</v>
+        <f>A21</f>
+        <v>48971c00-b21e-4304-a59b-cb988864072c</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H52" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B53" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>0df1bfe7-760d-4b28-99ab-9f8db551d961</v>
+        <f>A79</f>
+        <v>e719768b-4877-4a85-ac95-595933ea5096</v>
       </c>
       <c r="C53" s="16" t="str">
-        <f>A28</f>
-        <v>5ddd5e7a-7348-4c12-a00f-9358e8412ee7</v>
+        <f>A27</f>
+        <v>4b398ad8-0d8c-4dab-8954-85130b86d973</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>43</v>
+        <v>235</v>
+      </c>
+      <c r="G53" s="12" t="str">
+        <f>'DATA-PERM'!B27</f>
+        <v>上传</v>
       </c>
       <c r="H53" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B54" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>0ba54a2b-6a43-4466-ba7f-e949218933ef</v>
+        <f t="shared" ref="B54:B56" si="1">A80</f>
+        <v>7fd2d3b1-9cb6-400e-83f9-ad8676154f56</v>
       </c>
       <c r="C54" s="16" t="str">
-        <f>A23</f>
-        <v>48971c00-b21e-4304-a59b-cb988864072c</v>
+        <f>A28</f>
+        <v>7240209a-22d8-4ce5-a8a3-108c177354d9</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>44</v>
+        <v>159</v>
+      </c>
+      <c r="G54" s="12" t="str">
+        <f>'DATA-PERM'!B28</f>
+        <v>下载</v>
       </c>
       <c r="H54" s="12">
         <v>1</v>
@@ -2456,27 +2440,28 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="10" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B55" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>8c3873b5-2641-443e-87ef-53d3dda075b4</v>
+        <f t="shared" si="1"/>
+        <v>cff42b11-8991-4830-9d5a-b611c4ce214f</v>
       </c>
       <c r="C55" s="16" t="str">
-        <f>A23</f>
-        <v>48971c00-b21e-4304-a59b-cb988864072c</v>
+        <f>A29</f>
+        <v>e24e1d5f-297e-4f9e-9eb7-d67a9f7f5174</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>45</v>
+        <v>162</v>
+      </c>
+      <c r="G55" s="12" t="str">
+        <f>'DATA-PERM'!B29</f>
+        <v>我的文件</v>
       </c>
       <c r="H55" s="12">
         <v>1</v>
@@ -2485,27 +2470,28 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="10" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B56" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>b0b3901d-12ff-4c05-a879-480e0b9fa91d</v>
+        <f t="shared" si="1"/>
+        <v>f5f8a512-0db3-42b7-915f-3d33ebbcb14c</v>
       </c>
       <c r="C56" s="16" t="str">
-        <f>A23</f>
-        <v>48971c00-b21e-4304-a59b-cb988864072c</v>
+        <f>A30</f>
+        <v>b4dc2aca-875c-4714-b06b-ef8b6ad481e4</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>57</v>
+        <v>164</v>
+      </c>
+      <c r="G56" s="12" t="str">
+        <f>'DATA-PERM'!B30</f>
+        <v>读取文件</v>
       </c>
       <c r="H56" s="12">
         <v>1</v>
@@ -2513,324 +2499,308 @@
       <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B57" s="16" t="str">
-        <f>A85</f>
-        <v>e719768b-4877-4a85-ac95-595933ea5096</v>
-      </c>
-      <c r="C57" s="16" t="str">
-        <f>A29</f>
-        <v>4b398ad8-0d8c-4dab-8954-85130b86d973</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="G57" s="12" t="str">
-        <f>'DATA-PERM'!B29</f>
-        <v>上传</v>
-      </c>
-      <c r="H57" s="12">
+      <c r="A57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="3"/>
+      <c r="K57" s="14"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="3"/>
+      <c r="K58" s="14"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="3"/>
+      <c r="K59" s="14"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="3"/>
+      <c r="K60" s="14"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G64" s="12">
+        <v>1</v>
+      </c>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G65" s="12">
         <v>4</v>
       </c>
-      <c r="I57" s="12"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B58" s="16" t="str">
-        <f t="shared" ref="B58:B60" si="1">A86</f>
-        <v>7fd2d3b1-9cb6-400e-83f9-ad8676154f56</v>
-      </c>
-      <c r="C58" s="16" t="str">
-        <f>A30</f>
-        <v>7240209a-22d8-4ce5-a8a3-108c177354d9</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G58" s="12" t="str">
-        <f>'DATA-PERM'!B30</f>
-        <v>下载</v>
-      </c>
-      <c r="H58" s="12">
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G66" s="12">
+        <v>8</v>
+      </c>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G67" s="12">
+        <v>12</v>
+      </c>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G68" s="12">
         <v>1</v>
       </c>
-      <c r="I58" s="12"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B59" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>cff42b11-8991-4830-9d5a-b611c4ce214f</v>
-      </c>
-      <c r="C59" s="16" t="str">
-        <f>A31</f>
-        <v>e24e1d5f-297e-4f9e-9eb7-d67a9f7f5174</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="G59" s="12" t="str">
-        <f>'DATA-PERM'!B31</f>
-        <v>我的文件</v>
-      </c>
-      <c r="H59" s="12">
-        <v>1</v>
-      </c>
-      <c r="I59" s="12"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B60" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>f5f8a512-0db3-42b7-915f-3d33ebbcb14c</v>
-      </c>
-      <c r="C60" s="16" t="str">
-        <f>A32</f>
-        <v>b4dc2aca-875c-4714-b06b-ef8b6ad481e4</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="G60" s="12" t="str">
-        <f>'DATA-PERM'!B32</f>
-        <v>读取文件</v>
-      </c>
-      <c r="H60" s="12">
-        <v>1</v>
-      </c>
-      <c r="I60" s="12"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B61" s="16" t="str">
-        <f t="shared" ref="B61" si="2">A89</f>
-        <v>bfd1d794-bea3-4c79-aaaa-eceb53af3fcd</v>
-      </c>
-      <c r="C61" s="16" t="str">
-        <f t="shared" ref="C61" si="3">A33</f>
-        <v>979ab118-e232-4595-a9cb-20b68e775fd7</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="G61" s="12" t="str">
-        <f>'DATA-PERM'!B33</f>
-        <v>读取目录文件</v>
-      </c>
-      <c r="H61" s="12">
-        <v>1</v>
-      </c>
-      <c r="I61" s="12"/>
-      <c r="K61" s="14"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="B62" s="16" t="str">
-        <f t="shared" ref="B62" si="4">A90</f>
-        <v>a9baa170-550b-44ee-8e32-b8eee8205483</v>
-      </c>
-      <c r="C62" s="16" t="str">
-        <f t="shared" ref="C62" si="5">A34</f>
-        <v>be0f8b9b-bff1-4d38-af64-02efbb17a390</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="G62" s="12" t="str">
-        <f>'DATA-PERM'!B34</f>
-        <v>搜索文件</v>
-      </c>
-      <c r="H62" s="12">
-        <v>1</v>
-      </c>
-      <c r="I62" s="12"/>
-      <c r="K62" s="14"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="3"/>
-      <c r="K63" s="14"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="3"/>
-      <c r="K64" s="14"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="3"/>
-      <c r="K65" s="14"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="3"/>
-      <c r="K66" s="14"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H68" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I68" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K68" s="5" t="s">
-        <v>72</v>
-      </c>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="A69" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G69" s="12">
+        <v>8</v>
+      </c>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="10" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>82</v>
@@ -2839,29 +2809,25 @@
         <v>234</v>
       </c>
       <c r="G70" s="12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
-      <c r="J70" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K70" s="11" t="s">
-        <v>112</v>
-      </c>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>82</v>
@@ -2870,7 +2836,7 @@
         <v>234</v>
       </c>
       <c r="G71" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
@@ -2879,16 +2845,16 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="10" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>82</v>
@@ -2897,7 +2863,7 @@
         <v>234</v>
       </c>
       <c r="G72" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
@@ -2906,16 +2872,16 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="10" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>82</v>
@@ -2924,7 +2890,7 @@
         <v>234</v>
       </c>
       <c r="G73" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
@@ -2933,16 +2899,16 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="10" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>82</v>
@@ -2951,7 +2917,7 @@
         <v>234</v>
       </c>
       <c r="G74" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
@@ -2960,16 +2926,16 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>82</v>
@@ -2978,7 +2944,7 @@
         <v>234</v>
       </c>
       <c r="G75" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
@@ -2987,16 +2953,16 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>82</v>
@@ -3005,7 +2971,7 @@
         <v>234</v>
       </c>
       <c r="G76" s="12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
@@ -3014,16 +2980,16 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="10" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>82</v>
@@ -3032,7 +2998,7 @@
         <v>234</v>
       </c>
       <c r="G77" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
@@ -3041,16 +3007,16 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>82</v>
@@ -3059,7 +3025,7 @@
         <v>234</v>
       </c>
       <c r="G78" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
@@ -3068,25 +3034,26 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>147</v>
+        <v>191</v>
+      </c>
+      <c r="B79" s="12" t="str">
+        <f>'DATA-PERM'!B27</f>
+        <v>上传</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>234</v>
       </c>
       <c r="G79" s="12">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
@@ -3094,26 +3061,27 @@
       <c r="K79" s="11"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>148</v>
+      <c r="A80" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B80" s="12" t="str">
+        <f>'DATA-PERM'!B28</f>
+        <v>下载</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>234</v>
       </c>
       <c r="G80" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
@@ -3121,26 +3089,27 @@
       <c r="K80" s="11"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>149</v>
+      <c r="A81" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B81" s="12" t="str">
+        <f>'DATA-PERM'!B29</f>
+        <v>我的文件</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>234</v>
       </c>
       <c r="G81" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
@@ -3148,20 +3117,21 @@
       <c r="K81" s="11"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>150</v>
+      <c r="A82" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B82" s="12" t="str">
+        <f>'DATA-PERM'!B30</f>
+        <v>读取文件</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>234</v>
@@ -3174,233 +3144,11 @@
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G83" s="12">
-        <v>1</v>
-      </c>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G84" s="12">
-        <v>1</v>
-      </c>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B85" s="12" t="str">
-        <f>'DATA-PERM'!B29</f>
-        <v>上传</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G85" s="12">
-        <v>4</v>
-      </c>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="B86" s="12" t="str">
-        <f>'DATA-PERM'!B30</f>
-        <v>下载</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G86" s="12">
-        <v>1</v>
-      </c>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="B87" s="12" t="str">
-        <f>'DATA-PERM'!B31</f>
-        <v>我的文件</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G87" s="12">
-        <v>1</v>
-      </c>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B88" s="12" t="str">
-        <f>'DATA-PERM'!B32</f>
-        <v>读取文件</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G88" s="12">
-        <v>1</v>
-      </c>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="B89" s="12" t="str">
-        <f>'DATA-PERM'!B33</f>
-        <v>读取目录文件</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="G89" s="12">
-        <v>1</v>
-      </c>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="B90" s="12" t="str">
-        <f>'DATA-PERM'!B34</f>
-        <v>搜索文件</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="G90" s="12">
-        <v>1</v>
-      </c>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C67:K67"/>
+    <mergeCell ref="C61:K61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.attachment.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/x.attachment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7A41C3-1DAF-2C48-A487-D8A8B1F66297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E72F2F4-B254-384C-BF99-52E888D728CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44000" yWindow="-6340" windowWidth="44740" windowHeight="29040" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="42400" yWindow="-10460" windowWidth="44740" windowHeight="29040" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="196">
   <si>
     <t>key</t>
   </si>
@@ -511,95 +511,6 @@
     <t>检查丢失附件</t>
   </si>
   <si>
-    <t>x.attachment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.file.my.file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.file.my.queue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.file.download</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.file.upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act.file.upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act.file.download</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/file/download/:fileKey</t>
-  </si>
-  <si>
-    <t>act.file.my.queue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/file/my/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act.file.my.key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/file/my/:key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传</t>
-  </si>
-  <si>
-    <t>perm.file.upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载</t>
-  </si>
-  <si>
-    <t>perm.file.download</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>perm.file.my.queue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>perm.file.my.key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统数据管理</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台管理/文件管理</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>基础数据/附件管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -649,18 +560,6 @@
     <t>b0b3901d-12ff-4c05-a879-480e0b9fa91d</t>
   </si>
   <si>
-    <t>e719768b-4877-4a85-ac95-595933ea5096</t>
-  </si>
-  <si>
-    <t>7fd2d3b1-9cb6-400e-83f9-ad8676154f56</t>
-  </si>
-  <si>
-    <t>cff42b11-8991-4830-9d5a-b611c4ce214f</t>
-  </si>
-  <si>
-    <t>f5f8a512-0db3-42b7-915f-3d33ebbcb14c</t>
-  </si>
-  <si>
     <t>4c513155-f98c-44df-bc20-a5f2ec49a32b</t>
   </si>
   <si>
@@ -706,18 +605,6 @@
     <t>766cb11a-0043-4100-aedb-5cb4a0929761</t>
   </si>
   <si>
-    <t>4a344451-0015-48c9-937c-d686b2a23710</t>
-  </si>
-  <si>
-    <t>7ae2bd8b-8746-43c2-9c79-43c928c97b38</t>
-  </si>
-  <si>
-    <t>4ec97d78-7add-4d50-b36f-8344ffd371b6</t>
-  </si>
-  <si>
-    <t>6d026691-2242-4ae7-b13b-c6f171bed258</t>
-  </si>
-  <si>
     <t>48971c00-b21e-4304-a59b-cb988864072c</t>
   </si>
   <si>
@@ -736,18 +623,6 @@
     <t>5ddd5e7a-7348-4c12-a00f-9358e8412ee7</t>
   </si>
   <si>
-    <t>4b398ad8-0d8c-4dab-8954-85130b86d973</t>
-  </si>
-  <si>
-    <t>7240209a-22d8-4ce5-a8a3-108c177354d9</t>
-  </si>
-  <si>
-    <t>e24e1d5f-297e-4f9e-9eb7-d67a9f7f5174</t>
-  </si>
-  <si>
-    <t>b4dc2aca-875c-4714-b06b-ef8b6ad481e4</t>
-  </si>
-  <si>
     <t>cf34de27-c60f-41bf-bf14-e9a17af5663b</t>
   </si>
   <si>
@@ -766,23 +641,7 @@
     <t>1cf8aaf7-260b-4cf1-83e9-977f5d32dcc0</t>
   </si>
   <si>
-    <t>4e7c30c2-c04e-4b2e-82dd-a2e3ebf54586</t>
-  </si>
-  <si>
-    <t>51da4f23-2d92-40fc-a0b6-48f2ff3509db</t>
-  </si>
-  <si>
-    <t>2de78c54-7102-4bd3-ad87-fa26f3cc1403</t>
-  </si>
-  <si>
-    <t>b5d58d45-c146-4125-9c9a-fb42565b986b</t>
-  </si>
-  <si>
     <t>resource.ambient</t>
-  </si>
-  <si>
-    <t>/api/file/upload/:identifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1001,7 +860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1067,9 +926,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1424,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K82"/>
+  <dimension ref="A2:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A16" sqref="A15:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1446,17 +1302,17 @@
     <col min="13" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="23" customFormat="1">
+    <row r="2" spans="1:9" s="23" customFormat="1">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="1:4" s="23" customFormat="1">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" s="23" customFormat="1">
       <c r="A3" s="24" t="s">
         <v>64</v>
       </c>
@@ -1470,7 +1326,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="23" customFormat="1">
+    <row r="4" spans="1:9" s="23" customFormat="1">
       <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
@@ -1484,212 +1340,194 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="23" customFormat="1">
+    <row r="5" spans="1:9" s="23" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="23" customFormat="1">
+    <row r="6" spans="1:9" s="23" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="23" customFormat="1">
+    <row r="7" spans="1:9" s="23" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="23" customFormat="1">
+    <row r="8" spans="1:9" s="23" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="23" customFormat="1">
+    <row r="9" spans="1:9" s="23" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="23" customFormat="1">
+    <row r="10" spans="1:9" s="23" customFormat="1">
       <c r="A10" s="10" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>81</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="23" customFormat="1">
-      <c r="A11" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="23" customFormat="1">
-      <c r="A12" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="23" customFormat="1">
-      <c r="A13" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="23" customFormat="1">
-      <c r="A14" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>173</v>
-      </c>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+      <c r="A18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>58</v>
+      <c r="A19" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>59</v>
+      <c r="A20" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="10" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>82</v>
@@ -1699,16 +1537,16 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>82</v>
@@ -1718,16 +1556,16 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="10" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>82</v>
@@ -1737,16 +1575,16 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>82</v>
@@ -1754,218 +1592,220 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="11" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B29" s="12" t="s">
+      <c r="B34" s="16" t="str">
+        <f>A58</f>
+        <v>ab01e17b-dd2e-48ce-9d3d-32f7ac89e65d</v>
+      </c>
+      <c r="C34" s="16" t="str">
+        <f>A19</f>
+        <v>48971c00-b21e-4304-a59b-cb988864072c</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="12">
+        <v>1</v>
+      </c>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="B35" s="16" t="str">
+        <f>A59</f>
+        <v>459fd706-dd89-4f42-97a0-dc9c39174816</v>
+      </c>
+      <c r="C35" s="16" t="str">
+        <f>A20</f>
+        <v>ad370f92-c914-4a23-bafd-400112c5587b</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="12">
+        <v>4</v>
+      </c>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B30" s="12" t="s">
+      <c r="B36" s="16" t="str">
+        <f>A60</f>
+        <v>01361936-6a9d-4cbf-a7ba-9058db769a32</v>
+      </c>
+      <c r="C36" s="16" t="str">
+        <f>A21</f>
+        <v>21c9e12f-928a-4cf8-8ae4-6758545273c0</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="12">
+        <v>8</v>
+      </c>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="17" t="s">
+      <c r="B37" s="16" t="str">
+        <f>A61</f>
+        <v>f0455b6a-68c8-4184-a09c-0ef15798dd7d</v>
+      </c>
+      <c r="C37" s="16" t="str">
+        <f>A22</f>
+        <v>7b4758df-d98e-434a-b794-2ada0db91b1d</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="12">
         <v>12</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="10" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B38" s="16" t="str">
-        <f t="shared" ref="B38:B52" si="0">A64</f>
-        <v>ab01e17b-dd2e-48ce-9d3d-32f7ac89e65d</v>
+        <f>A62</f>
+        <v>65518a72-6d19-4119-9fdf-28e2a15f2468</v>
       </c>
       <c r="C38" s="16" t="str">
-        <f>A21</f>
+        <f>A19</f>
         <v>48971c00-b21e-4304-a59b-cb988864072c</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H38" s="12">
         <v>1</v>
@@ -1974,201 +1814,201 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="10" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B39" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>459fd706-dd89-4f42-97a0-dc9c39174816</v>
+        <f>A63</f>
+        <v>eb256cce-c770-4a95-ae3e-0c42d90cbeda</v>
       </c>
       <c r="C39" s="16" t="str">
-        <f>A22</f>
-        <v>ad370f92-c914-4a23-bafd-400112c5587b</v>
+        <f>A21</f>
+        <v>21c9e12f-928a-4cf8-8ae4-6758545273c0</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H39" s="12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="10" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B40" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>01361936-6a9d-4cbf-a7ba-9058db769a32</v>
+        <f>A64</f>
+        <v>69c852b9-e25f-4110-8408-a0cae4ee3605</v>
       </c>
       <c r="C40" s="16" t="str">
-        <f>A23</f>
-        <v>21c9e12f-928a-4cf8-8ae4-6758545273c0</v>
+        <f>A22</f>
+        <v>7b4758df-d98e-434a-b794-2ada0db91b1d</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H40" s="12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="10" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="B41" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>f0455b6a-68c8-4184-a09c-0ef15798dd7d</v>
+        <f>A65</f>
+        <v>ea9347e3-22ac-4498-bfbd-efe6a9a6fcd6</v>
       </c>
       <c r="C41" s="16" t="str">
-        <f>A24</f>
-        <v>7b4758df-d98e-434a-b794-2ada0db91b1d</v>
+        <f>A23</f>
+        <v>04d419bc-28ea-4253-afc4-a0ce9d7ff80c</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H41" s="12">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="10" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="B42" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>65518a72-6d19-4119-9fdf-28e2a15f2468</v>
+        <f>A66</f>
+        <v>1dd224c4-0851-4277-97a7-39d709b2ab31</v>
       </c>
       <c r="C42" s="16" t="str">
-        <f>A21</f>
-        <v>48971c00-b21e-4304-a59b-cb988864072c</v>
+        <f>A23</f>
+        <v>04d419bc-28ea-4253-afc4-a0ce9d7ff80c</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H42" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="10" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B43" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>eb256cce-c770-4a95-ae3e-0c42d90cbeda</v>
+        <f>A67</f>
+        <v>61377ff6-4a98-4733-ab4f-dae940bc480b</v>
       </c>
       <c r="C43" s="16" t="str">
         <f>A23</f>
-        <v>21c9e12f-928a-4cf8-8ae4-6758545273c0</v>
+        <v>04d419bc-28ea-4253-afc4-a0ce9d7ff80c</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H43" s="12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="10" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="B44" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>69c852b9-e25f-4110-8408-a0cae4ee3605</v>
+        <f>A68</f>
+        <v>b0824b85-e2a6-44df-b9d6-7fead9a04d3d</v>
       </c>
       <c r="C44" s="16" t="str">
         <f>A24</f>
-        <v>7b4758df-d98e-434a-b794-2ada0db91b1d</v>
+        <v>5ddd5e7a-7348-4c12-a00f-9358e8412ee7</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H44" s="12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="10" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="B45" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>ea9347e3-22ac-4498-bfbd-efe6a9a6fcd6</v>
+        <f>A69</f>
+        <v>0df1bfe7-760d-4b28-99ab-9f8db551d961</v>
       </c>
       <c r="C45" s="16" t="str">
-        <f>A25</f>
-        <v>04d419bc-28ea-4253-afc4-a0ce9d7ff80c</v>
+        <f>A24</f>
+        <v>5ddd5e7a-7348-4c12-a00f-9358e8412ee7</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H45" s="12">
         <v>3</v>
@@ -2177,504 +2017,430 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="10" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B46" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>1dd224c4-0851-4277-97a7-39d709b2ab31</v>
+        <f>A70</f>
+        <v>0ba54a2b-6a43-4466-ba7f-e949218933ef</v>
       </c>
       <c r="C46" s="16" t="str">
-        <f>A25</f>
-        <v>04d419bc-28ea-4253-afc4-a0ce9d7ff80c</v>
+        <f>A19</f>
+        <v>48971c00-b21e-4304-a59b-cb988864072c</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H46" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="10" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="B47" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>61377ff6-4a98-4733-ab4f-dae940bc480b</v>
+        <f>A71</f>
+        <v>8c3873b5-2641-443e-87ef-53d3dda075b4</v>
       </c>
       <c r="C47" s="16" t="str">
-        <f>A25</f>
-        <v>04d419bc-28ea-4253-afc4-a0ce9d7ff80c</v>
+        <f>A19</f>
+        <v>48971c00-b21e-4304-a59b-cb988864072c</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H47" s="12">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="10" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="B48" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>b0824b85-e2a6-44df-b9d6-7fead9a04d3d</v>
+        <f>A72</f>
+        <v>b0b3901d-12ff-4c05-a879-480e0b9fa91d</v>
       </c>
       <c r="C48" s="16" t="str">
-        <f>A26</f>
-        <v>5ddd5e7a-7348-4c12-a00f-9358e8412ee7</v>
+        <f>A19</f>
+        <v>48971c00-b21e-4304-a59b-cb988864072c</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H48" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B49" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>0df1bfe7-760d-4b28-99ab-9f8db551d961</v>
-      </c>
-      <c r="C49" s="16" t="str">
-        <f>A26</f>
-        <v>5ddd5e7a-7348-4c12-a00f-9358e8412ee7</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" s="12">
+    <row r="51" spans="1:11">
+      <c r="A51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="3"/>
+      <c r="K51" s="14"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="3"/>
+      <c r="K52" s="14"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="3"/>
+      <c r="K53" s="14"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="3"/>
+      <c r="K54" s="14"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I56" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B50" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>0ba54a2b-6a43-4466-ba7f-e949218933ef</v>
-      </c>
-      <c r="C50" s="16" t="str">
-        <f>A21</f>
-        <v>48971c00-b21e-4304-a59b-cb988864072c</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H50" s="12">
+      <c r="C57" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G58" s="12">
         <v>1</v>
       </c>
-      <c r="I50" s="12"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B51" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>8c3873b5-2641-443e-87ef-53d3dda075b4</v>
-      </c>
-      <c r="C51" s="16" t="str">
-        <f>A21</f>
-        <v>48971c00-b21e-4304-a59b-cb988864072c</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" s="12">
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="I51" s="12"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B52" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>b0b3901d-12ff-4c05-a879-480e0b9fa91d</v>
-      </c>
-      <c r="C52" s="16" t="str">
-        <f>A21</f>
-        <v>48971c00-b21e-4304-a59b-cb988864072c</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H52" s="12">
+      <c r="K58" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G59" s="12">
+        <v>4</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G60" s="12">
+        <v>8</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G61" s="12">
+        <v>12</v>
+      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G62" s="12">
         <v>1</v>
       </c>
-      <c r="I52" s="12"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B53" s="16" t="str">
-        <f>A79</f>
-        <v>e719768b-4877-4a85-ac95-595933ea5096</v>
-      </c>
-      <c r="C53" s="16" t="str">
-        <f>A27</f>
-        <v>4b398ad8-0d8c-4dab-8954-85130b86d973</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="G53" s="12" t="str">
-        <f>'DATA-PERM'!B27</f>
-        <v>上传</v>
-      </c>
-      <c r="H53" s="12">
-        <v>4</v>
-      </c>
-      <c r="I53" s="12"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B54" s="16" t="str">
-        <f t="shared" ref="B54:B56" si="1">A80</f>
-        <v>7fd2d3b1-9cb6-400e-83f9-ad8676154f56</v>
-      </c>
-      <c r="C54" s="16" t="str">
-        <f>A28</f>
-        <v>7240209a-22d8-4ce5-a8a3-108c177354d9</v>
-      </c>
-      <c r="D54" s="13" t="s">
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E54" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G54" s="12" t="str">
-        <f>'DATA-PERM'!B28</f>
-        <v>下载</v>
-      </c>
-      <c r="H54" s="12">
-        <v>1</v>
-      </c>
-      <c r="I54" s="12"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B55" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>cff42b11-8991-4830-9d5a-b611c4ce214f</v>
-      </c>
-      <c r="C55" s="16" t="str">
-        <f>A29</f>
-        <v>e24e1d5f-297e-4f9e-9eb7-d67a9f7f5174</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="G55" s="12" t="str">
-        <f>'DATA-PERM'!B29</f>
-        <v>我的文件</v>
-      </c>
-      <c r="H55" s="12">
-        <v>1</v>
-      </c>
-      <c r="I55" s="12"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B56" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>f5f8a512-0db3-42b7-915f-3d33ebbcb14c</v>
-      </c>
-      <c r="C56" s="16" t="str">
-        <f>A30</f>
-        <v>b4dc2aca-875c-4714-b06b-ef8b6ad481e4</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="G56" s="12" t="str">
-        <f>'DATA-PERM'!B30</f>
-        <v>读取文件</v>
-      </c>
-      <c r="H56" s="12">
-        <v>1</v>
-      </c>
-      <c r="I56" s="12"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="3"/>
-      <c r="K57" s="14"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="3"/>
-      <c r="K58" s="14"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="3"/>
-      <c r="K59" s="14"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="3"/>
-      <c r="K60" s="14"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G62" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I62" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="B63" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G63" s="12">
+        <v>8</v>
+      </c>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="10" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="G64" s="12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
-      <c r="J64" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K64" s="11" t="s">
-        <v>112</v>
-      </c>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="10" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="G65" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
@@ -2683,25 +2449,25 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="10" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="G66" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
@@ -2710,25 +2476,25 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="10" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="G67" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
@@ -2737,25 +2503,25 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="10" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="G68" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
@@ -2764,25 +2530,25 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="10" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="G69" s="12">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
@@ -2791,25 +2557,25 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="10" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="G70" s="12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
@@ -2818,25 +2584,25 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="10" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="G71" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
@@ -2845,310 +2611,36 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="10" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="G72" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G73" s="12">
-        <v>11</v>
-      </c>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G74" s="12">
-        <v>5</v>
-      </c>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G75" s="12">
-        <v>3</v>
-      </c>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G76" s="12">
-        <v>1</v>
-      </c>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G77" s="12">
-        <v>1</v>
-      </c>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G78" s="12">
-        <v>1</v>
-      </c>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B79" s="12" t="str">
-        <f>'DATA-PERM'!B27</f>
-        <v>上传</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G79" s="12">
-        <v>4</v>
-      </c>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="B80" s="12" t="str">
-        <f>'DATA-PERM'!B28</f>
-        <v>下载</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G80" s="12">
-        <v>1</v>
-      </c>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="B81" s="12" t="str">
-        <f>'DATA-PERM'!B29</f>
-        <v>我的文件</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G81" s="12">
-        <v>1</v>
-      </c>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B82" s="12" t="str">
-        <f>'DATA-PERM'!B30</f>
-        <v>读取文件</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G82" s="12">
-        <v>1</v>
-      </c>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="C55:K55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
